--- a/res/merged_qualtrics_finale.xlsx
+++ b/res/merged_qualtrics_finale.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JY35"/>
+  <dimension ref="A1:KA35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1600,14 +1600,14 @@
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
+          <t>NA_Pre</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
           <t>PA_Post</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
-        <is>
-          <t>NA_Pre</t>
-        </is>
-      </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>NA_Post</t>
@@ -1645,222 +1645,232 @@
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
+          <t>Loneliness_Category</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
           <t>Personalized_Code</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_1_Num</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_2_Num</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_3_Num</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_4_Num</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_5_Num</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_6_Num</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_7_Num</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_8_Num</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_9_Num</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_10_Num</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_1_Final</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_2_Final</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_4_Final</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_5_Final</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_7_Final</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_9_Final</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_3_Final</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_6_Final</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_8_Final</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>meandcomm_10_Final</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>Commensality_Pre</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>useoftech_1_Num</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>useoftech_2_Num</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>useoftech_3_Num</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>useoftech_4_Num</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>useoftech_1_Final</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>useoftech_2_Final</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>useoftech_3_Final</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>useoftech_4_Final</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>TechDiscomfort_Pre</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>useoftech2_1_Num</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>useoftech2_2_Num</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>useoftech2_3_Num</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>useoftech2_4_Num</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>useoftech2_5_Num</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>TechFreq_Pre</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>Freq_Level</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>Freq_Level_Real</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
-        <is>
-          <t>openness</t>
-        </is>
-      </c>
-      <c r="JV1" s="1" t="inlineStr">
-        <is>
-          <t>conscientiousness</t>
-        </is>
-      </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>extroversion</t>
+          <t>Openness</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>agreeableness</t>
+          <t>Conscientiousness</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>neuroticism</t>
+          <t>Extraversion</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>Agreeableness</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>Neuroticism</t>
         </is>
       </c>
     </row>
@@ -2674,10 +2684,10 @@
         <v>29</v>
       </c>
       <c r="HY2" t="n">
+        <v>14</v>
+      </c>
+      <c r="HZ2" t="n">
         <v>31</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>14</v>
       </c>
       <c r="IA2" t="n">
         <v>12</v>
@@ -2700,60 +2710,62 @@
       <c r="IG2" t="n">
         <v>6</v>
       </c>
-      <c r="IH2" t="n">
+      <c r="IH2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="II2" t="n">
         <v>0</v>
       </c>
-      <c r="II2" t="n">
-        <v>3</v>
-      </c>
       <c r="IJ2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IK2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IL2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IM2" t="n">
         <v>5</v>
       </c>
-      <c r="IM2" t="n">
-        <v>1</v>
-      </c>
       <c r="IN2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IO2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IP2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IQ2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS2" t="n">
         <v>5</v>
       </c>
-      <c r="IS2" t="n">
-        <v>3</v>
-      </c>
       <c r="IT2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IU2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW2" t="n">
         <v>5</v>
       </c>
-      <c r="IW2" t="n">
-        <v>3</v>
-      </c>
       <c r="IX2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IY2" t="n">
         <v>5</v>
       </c>
-      <c r="IY2" t="n">
-        <v>4</v>
-      </c>
       <c r="IZ2" t="n">
         <v>4</v>
       </c>
@@ -2761,79 +2773,87 @@
         <v>4</v>
       </c>
       <c r="JB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC2" t="n">
         <v>5</v>
       </c>
-      <c r="JC2" t="n">
+      <c r="JD2" t="n">
         <v>38</v>
       </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
       <c r="JE2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="JF2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JG2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="JH2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JI2" t="n">
         <v>5</v>
       </c>
-      <c r="JI2" t="n">
-        <v>2</v>
-      </c>
       <c r="JJ2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JK2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="JL2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM2" t="n">
         <v>11</v>
       </c>
-      <c r="JM2" t="n">
-        <v>1</v>
-      </c>
       <c r="JN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO2" t="n">
         <v>6</v>
       </c>
-      <c r="JO2" t="n">
-        <v>2</v>
-      </c>
       <c r="JP2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ2" t="n">
         <v>6</v>
       </c>
-      <c r="JQ2" t="n">
-        <v>1</v>
-      </c>
       <c r="JR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS2" t="n">
         <v>16</v>
       </c>
-      <c r="JS2" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT2" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU2" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU2" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV2" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW2" t="n">
         <v>3.3</v>
       </c>
-      <c r="JV2" t="n">
+      <c r="JX2" t="n">
         <v>2.7</v>
       </c>
-      <c r="JW2" t="n">
+      <c r="JY2" t="n">
         <v>4.7</v>
       </c>
-      <c r="JX2" t="n">
+      <c r="JZ2" t="n">
         <v>5</v>
       </c>
-      <c r="JY2" t="n">
+      <c r="KA2" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -3563,10 +3583,10 @@
         <v>43</v>
       </c>
       <c r="HY3" t="n">
+        <v>22</v>
+      </c>
+      <c r="HZ3" t="n">
         <v>36</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>22</v>
       </c>
       <c r="IA3" t="n">
         <v>16</v>
@@ -3589,78 +3609,80 @@
       <c r="IG3" t="n">
         <v>6</v>
       </c>
-      <c r="IH3" t="n">
+      <c r="IH3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="II3" t="n">
         <v>0</v>
       </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
       <c r="IJ3" t="n">
         <v>3</v>
       </c>
       <c r="IK3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IL3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IM3" t="n">
         <v>1</v>
       </c>
       <c r="IN3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="IO3" t="n">
         <v>5</v>
       </c>
       <c r="IP3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="IQ3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS3" t="n">
         <v>5</v>
       </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
       <c r="IT3" t="n">
         <v>3</v>
       </c>
       <c r="IU3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="IV3" t="n">
         <v>5</v>
       </c>
       <c r="IW3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="IX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY3" t="n">
         <v>5</v>
       </c>
-      <c r="IY3" t="n">
-        <v>4</v>
-      </c>
       <c r="IZ3" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA3" t="n">
         <v>5</v>
       </c>
-      <c r="JA3" t="n">
-        <v>4</v>
-      </c>
       <c r="JB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC3" t="n">
         <v>5</v>
       </c>
-      <c r="JC3" t="n">
+      <c r="JD3" t="n">
         <v>40</v>
       </c>
-      <c r="JD3" t="n">
+      <c r="JE3" t="n">
         <v>5</v>
       </c>
-      <c r="JE3" t="n">
-        <v>2</v>
-      </c>
       <c r="JF3" t="n">
         <v>2</v>
       </c>
@@ -3668,10 +3690,10 @@
         <v>2</v>
       </c>
       <c r="JH3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JI3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="JJ3" t="n">
         <v>2</v>
@@ -3680,49 +3702,57 @@
         <v>2</v>
       </c>
       <c r="JL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM3" t="n">
         <v>7</v>
       </c>
-      <c r="JM3" t="n">
-        <v>1</v>
-      </c>
       <c r="JN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO3" t="n">
         <v>6</v>
       </c>
-      <c r="JO3" t="n">
-        <v>1</v>
-      </c>
       <c r="JP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ3" t="n">
         <v>6</v>
       </c>
-      <c r="JQ3" t="n">
-        <v>1</v>
-      </c>
       <c r="JR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS3" t="n">
         <v>15</v>
       </c>
-      <c r="JS3" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT3" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU3" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU3" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV3" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW3" t="n">
         <v>2.7</v>
       </c>
-      <c r="JV3" t="n">
-        <v>4</v>
-      </c>
-      <c r="JW3" t="n">
+      <c r="JX3" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY3" t="n">
         <v>6</v>
       </c>
-      <c r="JX3" t="n">
+      <c r="JZ3" t="n">
         <v>6</v>
       </c>
-      <c r="JY3" t="n">
+      <c r="KA3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4452,10 +4482,10 @@
         <v>33</v>
       </c>
       <c r="HY4" t="n">
+        <v>31</v>
+      </c>
+      <c r="HZ4" t="n">
         <v>32</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>31</v>
       </c>
       <c r="IA4" t="n">
         <v>23</v>
@@ -4478,140 +4508,150 @@
       <c r="IG4" t="n">
         <v>6</v>
       </c>
-      <c r="IH4" t="n">
+      <c r="IH4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="II4" t="n">
         <v>0</v>
       </c>
-      <c r="II4" t="n">
-        <v>4</v>
-      </c>
       <c r="IJ4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IK4" t="n">
         <v>3</v>
       </c>
       <c r="IL4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IM4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IN4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IO4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IP4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IQ4" t="n">
         <v>2</v>
       </c>
       <c r="IR4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IS4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IT4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IU4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IV4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IW4" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX4" t="n">
         <v>5</v>
       </c>
-      <c r="IX4" t="n">
-        <v>4</v>
-      </c>
       <c r="IY4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IZ4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="JA4" t="n">
         <v>2</v>
       </c>
       <c r="JB4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JC4" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD4" t="n">
         <v>32</v>
       </c>
-      <c r="JD4" t="n">
+      <c r="JE4" t="n">
         <v>5</v>
       </c>
-      <c r="JE4" t="n">
-        <v>2</v>
-      </c>
       <c r="JF4" t="n">
         <v>2</v>
       </c>
       <c r="JG4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JH4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="JI4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="JJ4" t="n">
         <v>2</v>
       </c>
       <c r="JK4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JL4" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM4" t="n">
         <v>9</v>
       </c>
-      <c r="JM4" t="n">
-        <v>1</v>
-      </c>
       <c r="JN4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="JO4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="JP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ4" t="n">
         <v>6</v>
       </c>
-      <c r="JQ4" t="n">
-        <v>2</v>
-      </c>
       <c r="JR4" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS4" t="n">
         <v>14</v>
       </c>
-      <c r="JS4" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT4" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU4" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU4" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV4" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW4" t="n">
         <v>4.3</v>
       </c>
-      <c r="JV4" t="n">
+      <c r="JX4" t="n">
         <v>4.3</v>
       </c>
-      <c r="JW4" t="n">
+      <c r="JY4" t="n">
         <v>5</v>
       </c>
-      <c r="JX4" t="n">
+      <c r="JZ4" t="n">
         <v>5</v>
       </c>
-      <c r="JY4" t="n">
+      <c r="KA4" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -5425,10 +5465,10 @@
         <v>34</v>
       </c>
       <c r="HY5" t="n">
+        <v>19</v>
+      </c>
+      <c r="HZ5" t="n">
         <v>31</v>
-      </c>
-      <c r="HZ5" t="n">
-        <v>19</v>
       </c>
       <c r="IA5" t="n">
         <v>13</v>
@@ -5451,140 +5491,150 @@
       <c r="IG5" t="n">
         <v>5</v>
       </c>
-      <c r="IH5" t="n">
+      <c r="IH5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="II5" t="n">
         <v>0</v>
       </c>
-      <c r="II5" t="n">
-        <v>4</v>
-      </c>
       <c r="IJ5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL5" t="n">
         <v>5</v>
       </c>
-      <c r="IL5" t="n">
-        <v>2</v>
-      </c>
       <c r="IM5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO5" t="n">
         <v>5</v>
       </c>
-      <c r="IO5" t="n">
-        <v>1</v>
-      </c>
       <c r="IP5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IQ5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IR5" t="n">
+        <v>2</v>
+      </c>
+      <c r="IS5" t="n">
         <v>5</v>
       </c>
-      <c r="IS5" t="n">
-        <v>2</v>
-      </c>
       <c r="IT5" t="n">
+        <v>2</v>
+      </c>
+      <c r="IU5" t="n">
         <v>5</v>
       </c>
-      <c r="IU5" t="n">
-        <v>4</v>
-      </c>
       <c r="IV5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="IW5" t="n">
         <v>5</v>
       </c>
       <c r="IX5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="IY5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="IZ5" t="n">
         <v>5</v>
       </c>
       <c r="JA5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="JB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC5" t="n">
         <v>5</v>
       </c>
-      <c r="JC5" t="n">
+      <c r="JD5" t="n">
         <v>43</v>
       </c>
-      <c r="JD5" t="n">
-        <v>4</v>
-      </c>
       <c r="JE5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JF5" t="n">
         <v>3</v>
       </c>
       <c r="JG5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JH5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JI5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JJ5" t="n">
         <v>3</v>
       </c>
       <c r="JK5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JL5" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM5" t="n">
         <v>12</v>
       </c>
-      <c r="JM5" t="n">
-        <v>1</v>
-      </c>
       <c r="JN5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="JO5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="JP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ5" t="n">
         <v>6</v>
       </c>
-      <c r="JQ5" t="n">
+      <c r="JR5" t="n">
         <v>5</v>
       </c>
-      <c r="JR5" t="n">
+      <c r="JS5" t="n">
         <v>17</v>
       </c>
-      <c r="JS5" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT5" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU5" t="n">
-        <v>4</v>
-      </c>
-      <c r="JV5" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU5" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV5" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="JX5" t="n">
         <v>5</v>
       </c>
-      <c r="JW5" t="n">
+      <c r="JY5" t="n">
         <v>6</v>
       </c>
-      <c r="JX5" t="n">
+      <c r="JZ5" t="n">
         <v>6.7</v>
       </c>
-      <c r="JY5" t="n">
+      <c r="KA5" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -6402,10 +6452,10 @@
         <v>32</v>
       </c>
       <c r="HY6" t="n">
+        <v>17</v>
+      </c>
+      <c r="HZ6" t="n">
         <v>34</v>
-      </c>
-      <c r="HZ6" t="n">
-        <v>17</v>
       </c>
       <c r="IA6" t="n">
         <v>12</v>
@@ -6428,86 +6478,88 @@
       <c r="IG6" t="n">
         <v>6</v>
       </c>
-      <c r="IH6" t="n">
+      <c r="IH6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="II6" t="n">
         <v>0</v>
       </c>
-      <c r="II6" t="n">
-        <v>4</v>
-      </c>
       <c r="IJ6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IK6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IL6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IM6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IN6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IO6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IP6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IQ6" t="n">
         <v>2</v>
       </c>
       <c r="IR6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IS6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IT6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IU6" t="n">
         <v>4</v>
       </c>
       <c r="IV6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IW6" t="n">
         <v>2</v>
       </c>
       <c r="IX6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IY6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IZ6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="JA6" t="n">
         <v>2</v>
       </c>
       <c r="JB6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD6" t="n">
         <v>29</v>
       </c>
-      <c r="JD6" t="n">
+      <c r="JE6" t="n">
         <v>5</v>
       </c>
-      <c r="JE6" t="n">
-        <v>1</v>
-      </c>
       <c r="JF6" t="n">
         <v>1</v>
       </c>
       <c r="JG6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="JH6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JI6" t="n">
         <v>1</v>
@@ -6516,52 +6568,60 @@
         <v>1</v>
       </c>
       <c r="JK6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="JL6" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM6" t="n">
         <v>5</v>
       </c>
-      <c r="JM6" t="n">
-        <v>4</v>
-      </c>
       <c r="JN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO6" t="n">
         <v>6</v>
       </c>
-      <c r="JO6" t="n">
-        <v>1</v>
-      </c>
       <c r="JP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ6" t="n">
         <v>6</v>
       </c>
-      <c r="JQ6" t="n">
-        <v>2</v>
-      </c>
       <c r="JR6" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS6" t="n">
         <v>19</v>
       </c>
-      <c r="JS6" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT6" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU6" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU6" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV6" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW6" t="n">
         <v>2.7</v>
-      </c>
-      <c r="JV6" t="n">
-        <v>5</v>
-      </c>
-      <c r="JW6" t="n">
-        <v>6</v>
       </c>
       <c r="JX6" t="n">
         <v>5</v>
       </c>
       <c r="JY6" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ6" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA6" t="n">
         <v>5.3</v>
       </c>
     </row>
@@ -7375,10 +7435,10 @@
         <v>34</v>
       </c>
       <c r="HY7" t="n">
+        <v>25</v>
+      </c>
+      <c r="HZ7" t="n">
         <v>16</v>
-      </c>
-      <c r="HZ7" t="n">
-        <v>25</v>
       </c>
       <c r="IA7" t="n">
         <v>15</v>
@@ -7401,42 +7461,44 @@
       <c r="IG7" t="n">
         <v>5</v>
       </c>
-      <c r="IH7" t="n">
+      <c r="IH7" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="II7" t="n">
         <v>0</v>
       </c>
-      <c r="II7" t="n">
-        <v>2</v>
-      </c>
       <c r="IJ7" t="n">
         <v>2</v>
       </c>
       <c r="IK7" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL7" t="n">
         <v>5</v>
       </c>
-      <c r="IL7" t="n">
-        <v>2</v>
-      </c>
       <c r="IM7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IN7" t="n">
         <v>1</v>
       </c>
       <c r="IO7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IP7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IQ7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IR7" t="n">
+        <v>2</v>
+      </c>
+      <c r="IS7" t="n">
         <v>5</v>
       </c>
-      <c r="IS7" t="n">
-        <v>4</v>
-      </c>
       <c r="IT7" t="n">
         <v>4</v>
       </c>
@@ -7444,59 +7506,59 @@
         <v>4</v>
       </c>
       <c r="IV7" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW7" t="n">
         <v>5</v>
       </c>
-      <c r="IW7" t="n">
-        <v>4</v>
-      </c>
       <c r="IX7" t="n">
         <v>4</v>
       </c>
       <c r="IY7" t="n">
+        <v>4</v>
+      </c>
+      <c r="IZ7" t="n">
         <v>5</v>
       </c>
-      <c r="IZ7" t="n">
-        <v>1</v>
-      </c>
       <c r="JA7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="JB7" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC7" t="n">
         <v>5</v>
       </c>
-      <c r="JC7" t="n">
+      <c r="JD7" t="n">
         <v>40</v>
       </c>
-      <c r="JD7" t="n">
-        <v>1</v>
-      </c>
       <c r="JE7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="JF7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JG7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JH7" t="n">
+        <v>4</v>
+      </c>
+      <c r="JI7" t="n">
         <v>5</v>
       </c>
-      <c r="JI7" t="n">
-        <v>4</v>
-      </c>
       <c r="JJ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JK7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JL7" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM7" t="n">
         <v>16</v>
       </c>
-      <c r="JM7" t="n">
-        <v>1</v>
-      </c>
       <c r="JN7" t="n">
         <v>1</v>
       </c>
@@ -7504,37 +7566,45 @@
         <v>1</v>
       </c>
       <c r="JP7" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ7" t="n">
         <v>6</v>
       </c>
-      <c r="JQ7" t="n">
-        <v>1</v>
-      </c>
       <c r="JR7" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS7" t="n">
         <v>10</v>
       </c>
-      <c r="JS7" t="inlineStr">
-        <is>
-          <t>Bassa Frequenza</t>
-        </is>
-      </c>
       <c r="JT7" t="inlineStr">
         <is>
-          <t>Bassa Frequenza</t>
-        </is>
-      </c>
-      <c r="JU7" t="n">
-        <v>3</v>
-      </c>
-      <c r="JV7" t="n">
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="JU7" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV7" t="inlineStr">
+        <is>
+          <t>Low Frequency</t>
+        </is>
+      </c>
+      <c r="JW7" t="n">
+        <v>3</v>
+      </c>
+      <c r="JX7" t="n">
         <v>4.3</v>
       </c>
-      <c r="JW7" t="n">
+      <c r="JY7" t="n">
         <v>6.3</v>
       </c>
-      <c r="JX7" t="n">
+      <c r="JZ7" t="n">
         <v>6.3</v>
       </c>
-      <c r="JY7" t="n">
+      <c r="KA7" t="n">
         <v>5.3</v>
       </c>
     </row>
@@ -8348,10 +8418,10 @@
         <v>29</v>
       </c>
       <c r="HY8" t="n">
+        <v>25</v>
+      </c>
+      <c r="HZ8" t="n">
         <v>30</v>
-      </c>
-      <c r="HZ8" t="n">
-        <v>25</v>
       </c>
       <c r="IA8" t="n">
         <v>14</v>
@@ -8374,77 +8444,79 @@
       <c r="IG8" t="n">
         <v>6</v>
       </c>
-      <c r="IH8" t="n">
+      <c r="IH8" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="II8" t="n">
         <v>0</v>
       </c>
-      <c r="II8" t="n">
-        <v>4</v>
-      </c>
       <c r="IJ8" t="n">
         <v>4</v>
       </c>
       <c r="IK8" t="n">
+        <v>4</v>
+      </c>
+      <c r="IL8" t="n">
         <v>5</v>
       </c>
-      <c r="IL8" t="n">
-        <v>2</v>
-      </c>
       <c r="IM8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IN8" t="n">
         <v>3</v>
       </c>
       <c r="IO8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IP8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IQ8" t="n">
         <v>1</v>
       </c>
       <c r="IR8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IS8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IT8" t="n">
         <v>2</v>
       </c>
       <c r="IU8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IV8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IW8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IX8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="IY8" t="n">
         <v>5</v>
       </c>
       <c r="IZ8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="JA8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="JB8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="JC8" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD8" t="n">
         <v>33</v>
       </c>
-      <c r="JD8" t="n">
-        <v>4</v>
-      </c>
       <c r="JE8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="JF8" t="n">
         <v>1</v>
@@ -8453,10 +8525,10 @@
         <v>1</v>
       </c>
       <c r="JH8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="JI8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JJ8" t="n">
         <v>1</v>
@@ -8465,49 +8537,57 @@
         <v>1</v>
       </c>
       <c r="JL8" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM8" t="n">
         <v>5</v>
       </c>
-      <c r="JM8" t="n">
-        <v>1</v>
-      </c>
       <c r="JN8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="JO8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="JP8" t="n">
         <v>6</v>
       </c>
       <c r="JQ8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="JR8" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS8" t="n">
         <v>19</v>
       </c>
-      <c r="JS8" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT8" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU8" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU8" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV8" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW8" t="n">
         <v>5.7</v>
       </c>
-      <c r="JV8" t="n">
-        <v>3</v>
-      </c>
-      <c r="JW8" t="n">
+      <c r="JX8" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY8" t="n">
         <v>4.7</v>
       </c>
-      <c r="JX8" t="n">
-        <v>4</v>
-      </c>
-      <c r="JY8" t="n">
+      <c r="JZ8" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9321,10 +9401,10 @@
         <v>30</v>
       </c>
       <c r="HY9" t="n">
+        <v>25</v>
+      </c>
+      <c r="HZ9" t="n">
         <v>33</v>
-      </c>
-      <c r="HZ9" t="n">
-        <v>25</v>
       </c>
       <c r="IA9" t="n">
         <v>26</v>
@@ -9347,12 +9427,14 @@
       <c r="IG9" t="n">
         <v>9</v>
       </c>
-      <c r="IH9" t="n">
+      <c r="IH9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="II9" t="n">
         <v>0</v>
       </c>
-      <c r="II9" t="n">
-        <v>3</v>
-      </c>
       <c r="IJ9" t="n">
         <v>3</v>
       </c>
@@ -9360,127 +9442,135 @@
         <v>3</v>
       </c>
       <c r="IL9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IM9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IN9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IO9" t="n">
         <v>4</v>
       </c>
       <c r="IP9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IQ9" t="n">
         <v>3</v>
       </c>
       <c r="IR9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IS9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IT9" t="n">
         <v>3</v>
       </c>
       <c r="IU9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IV9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IW9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IX9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IY9" t="n">
         <v>3</v>
       </c>
       <c r="IZ9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JA9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JB9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JC9" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD9" t="n">
         <v>31</v>
       </c>
-      <c r="JD9" t="n">
+      <c r="JE9" t="n">
         <v>5</v>
       </c>
-      <c r="JE9" t="n">
-        <v>3</v>
-      </c>
       <c r="JF9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JG9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JH9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="JI9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="JJ9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JK9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JL9" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM9" t="n">
         <v>11</v>
-      </c>
-      <c r="JM9" t="n">
-        <v>6</v>
       </c>
       <c r="JN9" t="n">
         <v>6</v>
       </c>
       <c r="JO9" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP9" t="n">
         <v>5</v>
-      </c>
-      <c r="JP9" t="n">
-        <v>6</v>
       </c>
       <c r="JQ9" t="n">
         <v>6</v>
       </c>
       <c r="JR9" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS9" t="n">
         <v>29</v>
       </c>
-      <c r="JS9" t="inlineStr">
-        <is>
-          <t>Alta Frequenza</t>
-        </is>
-      </c>
       <c r="JT9" t="inlineStr">
         <is>
-          <t>Alta Frequenza</t>
-        </is>
-      </c>
-      <c r="JU9" t="n">
-        <v>5</v>
-      </c>
-      <c r="JV9" t="n">
-        <v>5.3</v>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="JU9" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV9" t="inlineStr">
+        <is>
+          <t>High Frequency</t>
+        </is>
       </c>
       <c r="JW9" t="n">
         <v>5</v>
       </c>
       <c r="JX9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="JY9" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ9" t="n">
         <v>3.7</v>
       </c>
-      <c r="JY9" t="n">
+      <c r="KA9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10294,10 +10384,10 @@
         <v>39</v>
       </c>
       <c r="HY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="HZ10" t="n">
         <v>28</v>
-      </c>
-      <c r="HZ10" t="n">
-        <v>23</v>
       </c>
       <c r="IA10" t="n">
         <v>21</v>
@@ -10320,20 +10410,22 @@
       <c r="IG10" t="n">
         <v>6</v>
       </c>
-      <c r="IH10" t="n">
+      <c r="IH10" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="II10" t="n">
         <v>0</v>
       </c>
-      <c r="II10" t="n">
+      <c r="IJ10" t="n">
         <v>5</v>
       </c>
-      <c r="IJ10" t="n">
-        <v>3</v>
-      </c>
       <c r="IK10" t="n">
         <v>3</v>
       </c>
       <c r="IL10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IM10" t="n">
         <v>4</v>
@@ -10342,53 +10434,53 @@
         <v>4</v>
       </c>
       <c r="IO10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IP10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IQ10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IR10" t="n">
         <v>4</v>
       </c>
       <c r="IS10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IT10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IU10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IV10" t="n">
         <v>2</v>
       </c>
       <c r="IW10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IX10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IY10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IZ10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JA10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JB10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JC10" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD10" t="n">
         <v>28</v>
       </c>
-      <c r="JD10" t="n">
-        <v>3</v>
-      </c>
       <c r="JE10" t="n">
         <v>3</v>
       </c>
@@ -10396,11 +10488,11 @@
         <v>3</v>
       </c>
       <c r="JG10" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH10" t="n">
         <v>5</v>
       </c>
-      <c r="JH10" t="n">
-        <v>3</v>
-      </c>
       <c r="JI10" t="n">
         <v>3</v>
       </c>
@@ -10408,52 +10500,60 @@
         <v>3</v>
       </c>
       <c r="JK10" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL10" t="n">
         <v>5</v>
       </c>
-      <c r="JL10" t="n">
+      <c r="JM10" t="n">
         <v>14</v>
       </c>
-      <c r="JM10" t="n">
+      <c r="JN10" t="n">
         <v>6</v>
       </c>
-      <c r="JN10" t="n">
-        <v>3</v>
-      </c>
       <c r="JO10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="JP10" t="n">
         <v>6</v>
       </c>
       <c r="JQ10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="JR10" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS10" t="n">
         <v>22</v>
       </c>
-      <c r="JS10" t="inlineStr">
-        <is>
-          <t>Alta Frequenza</t>
-        </is>
-      </c>
       <c r="JT10" t="inlineStr">
         <is>
-          <t>Alta Frequenza</t>
-        </is>
-      </c>
-      <c r="JU10" t="n">
+          <t>High</t>
+        </is>
+      </c>
+      <c r="JU10" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV10" t="inlineStr">
+        <is>
+          <t>High Frequency</t>
+        </is>
+      </c>
+      <c r="JW10" t="n">
         <v>1.7</v>
       </c>
-      <c r="JV10" t="n">
+      <c r="JX10" t="n">
         <v>5.3</v>
       </c>
-      <c r="JW10" t="n">
+      <c r="JY10" t="n">
         <v>5.7</v>
       </c>
-      <c r="JX10" t="n">
+      <c r="JZ10" t="n">
         <v>4.7</v>
       </c>
-      <c r="JY10" t="n">
+      <c r="KA10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11267,10 +11367,10 @@
         <v>27</v>
       </c>
       <c r="HY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HZ11" t="n">
         <v>27</v>
-      </c>
-      <c r="HZ11" t="n">
-        <v>25</v>
       </c>
       <c r="IA11" t="n">
         <v>14</v>
@@ -11293,42 +11393,44 @@
       <c r="IG11" t="n">
         <v>8</v>
       </c>
-      <c r="IH11" t="n">
+      <c r="IH11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="II11" t="n">
         <v>0</v>
       </c>
-      <c r="II11" t="n">
-        <v>2</v>
-      </c>
       <c r="IJ11" t="n">
         <v>2</v>
       </c>
       <c r="IK11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IL11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IM11" t="n">
         <v>2</v>
       </c>
       <c r="IN11" t="n">
+        <v>2</v>
+      </c>
+      <c r="IO11" t="n">
         <v>5</v>
       </c>
-      <c r="IO11" t="n">
-        <v>2</v>
-      </c>
       <c r="IP11" t="n">
+        <v>2</v>
+      </c>
+      <c r="IQ11" t="n">
         <v>5</v>
       </c>
-      <c r="IQ11" t="n">
-        <v>1</v>
-      </c>
       <c r="IR11" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS11" t="n">
         <v>5</v>
       </c>
-      <c r="IS11" t="n">
-        <v>4</v>
-      </c>
       <c r="IT11" t="n">
         <v>4</v>
       </c>
@@ -11342,13 +11444,13 @@
         <v>4</v>
       </c>
       <c r="IX11" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY11" t="n">
         <v>5</v>
       </c>
-      <c r="IY11" t="n">
-        <v>4</v>
-      </c>
       <c r="IZ11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="JA11" t="n">
         <v>5</v>
@@ -11357,13 +11459,13 @@
         <v>5</v>
       </c>
       <c r="JC11" t="n">
+        <v>5</v>
+      </c>
+      <c r="JD11" t="n">
         <v>44</v>
       </c>
-      <c r="JD11" t="n">
-        <v>2</v>
-      </c>
       <c r="JE11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JF11" t="n">
         <v>4</v>
@@ -11384,49 +11486,57 @@
         <v>4</v>
       </c>
       <c r="JL11" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM11" t="n">
         <v>16</v>
-      </c>
-      <c r="JM11" t="n">
-        <v>5</v>
       </c>
       <c r="JN11" t="n">
         <v>5</v>
       </c>
       <c r="JO11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="JP11" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ11" t="n">
         <v>6</v>
       </c>
-      <c r="JQ11" t="n">
-        <v>4</v>
-      </c>
       <c r="JR11" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS11" t="n">
         <v>21</v>
       </c>
-      <c r="JS11" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT11" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU11" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU11" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV11" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW11" t="n">
         <v>5.3</v>
-      </c>
-      <c r="JV11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="JW11" t="n">
-        <v>4.3</v>
       </c>
       <c r="JX11" t="n">
         <v>5.3</v>
       </c>
       <c r="JY11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="JZ11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="KA11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12244,10 +12354,10 @@
         <v>36</v>
       </c>
       <c r="HY12" t="n">
+        <v>25</v>
+      </c>
+      <c r="HZ12" t="n">
         <v>30</v>
-      </c>
-      <c r="HZ12" t="n">
-        <v>25</v>
       </c>
       <c r="IA12" t="n">
         <v>15</v>
@@ -12270,47 +12380,49 @@
       <c r="IG12" t="n">
         <v>4</v>
       </c>
-      <c r="IH12" t="n">
-        <v>1</v>
+      <c r="IH12" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
       </c>
       <c r="II12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IJ12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IK12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IL12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IM12" t="n">
         <v>2</v>
       </c>
       <c r="IN12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IO12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IP12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IQ12" t="n">
         <v>1</v>
       </c>
       <c r="IR12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IS12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IT12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IU12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IV12" t="n">
         <v>4</v>
@@ -12319,91 +12431,99 @@
         <v>4</v>
       </c>
       <c r="IX12" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY12" t="n">
         <v>5</v>
       </c>
-      <c r="IY12" t="n">
-        <v>4</v>
-      </c>
       <c r="IZ12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JA12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="JB12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="JC12" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD12" t="n">
         <v>34</v>
       </c>
-      <c r="JD12" t="n">
-        <v>4</v>
-      </c>
       <c r="JE12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JF12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JG12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JH12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JI12" t="n">
         <v>2</v>
       </c>
       <c r="JJ12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JK12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JL12" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM12" t="n">
         <v>11</v>
       </c>
-      <c r="JM12" t="n">
-        <v>1</v>
-      </c>
       <c r="JN12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="JO12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="JP12" t="n">
         <v>6</v>
       </c>
       <c r="JQ12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="JR12" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS12" t="n">
         <v>20</v>
       </c>
-      <c r="JS12" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT12" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU12" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU12" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV12" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW12" t="n">
         <v>4.3</v>
       </c>
-      <c r="JV12" t="n">
+      <c r="JX12" t="n">
         <v>4.3</v>
       </c>
-      <c r="JW12" t="n">
+      <c r="JY12" t="n">
         <v>5.3</v>
       </c>
-      <c r="JX12" t="n">
+      <c r="JZ12" t="n">
         <v>6</v>
       </c>
-      <c r="JY12" t="n">
+      <c r="KA12" t="n">
         <v>3.3</v>
       </c>
     </row>
@@ -13217,10 +13337,10 @@
         <v>29</v>
       </c>
       <c r="HY13" t="n">
+        <v>32</v>
+      </c>
+      <c r="HZ13" t="n">
         <v>33</v>
-      </c>
-      <c r="HZ13" t="n">
-        <v>32</v>
       </c>
       <c r="IA13" t="n">
         <v>11</v>
@@ -13243,59 +13363,61 @@
       <c r="IG13" t="n">
         <v>6</v>
       </c>
-      <c r="IH13" t="n">
-        <v>1</v>
+      <c r="IH13" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
       </c>
       <c r="II13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IJ13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL13" t="n">
         <v>5</v>
       </c>
-      <c r="IL13" t="n">
-        <v>3</v>
-      </c>
       <c r="IM13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO13" t="n">
         <v>5</v>
       </c>
-      <c r="IO13" t="n">
-        <v>1</v>
-      </c>
       <c r="IP13" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ13" t="n">
         <v>5</v>
       </c>
-      <c r="IQ13" t="n">
-        <v>3</v>
-      </c>
       <c r="IR13" t="n">
+        <v>3</v>
+      </c>
+      <c r="IS13" t="n">
         <v>5</v>
       </c>
-      <c r="IS13" t="n">
-        <v>3</v>
-      </c>
       <c r="IT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="IU13" t="n">
         <v>5</v>
       </c>
-      <c r="IU13" t="n">
-        <v>3</v>
-      </c>
       <c r="IV13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="IW13" t="n">
         <v>5</v>
       </c>
       <c r="IX13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="IY13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="IZ13" t="n">
         <v>5</v>
@@ -13307,76 +13429,84 @@
         <v>5</v>
       </c>
       <c r="JC13" t="n">
+        <v>5</v>
+      </c>
+      <c r="JD13" t="n">
         <v>44</v>
       </c>
-      <c r="JD13" t="n">
+      <c r="JE13" t="n">
         <v>5</v>
       </c>
-      <c r="JE13" t="n">
-        <v>3</v>
-      </c>
       <c r="JF13" t="n">
         <v>3</v>
       </c>
       <c r="JG13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JH13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="JI13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="JJ13" t="n">
         <v>3</v>
       </c>
       <c r="JK13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JL13" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM13" t="n">
         <v>11</v>
       </c>
-      <c r="JM13" t="n">
-        <v>1</v>
-      </c>
       <c r="JN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO13" t="n">
         <v>6</v>
       </c>
-      <c r="JO13" t="n">
-        <v>1</v>
-      </c>
       <c r="JP13" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ13" t="n">
         <v>6</v>
       </c>
-      <c r="JQ13" t="n">
-        <v>1</v>
-      </c>
       <c r="JR13" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS13" t="n">
         <v>15</v>
       </c>
-      <c r="JS13" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT13" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU13" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU13" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV13" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW13" t="n">
         <v>5</v>
       </c>
-      <c r="JV13" t="n">
+      <c r="JX13" t="n">
         <v>5.7</v>
       </c>
-      <c r="JW13" t="n">
+      <c r="JY13" t="n">
         <v>6.3</v>
       </c>
-      <c r="JX13" t="n">
+      <c r="JZ13" t="n">
         <v>4.7</v>
       </c>
-      <c r="JY13" t="n">
+      <c r="KA13" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -14190,10 +14320,10 @@
         <v>28</v>
       </c>
       <c r="HY14" t="n">
+        <v>34</v>
+      </c>
+      <c r="HZ14" t="n">
         <v>20</v>
-      </c>
-      <c r="HZ14" t="n">
-        <v>34</v>
       </c>
       <c r="IA14" t="n">
         <v>12</v>
@@ -14216,47 +14346,49 @@
       <c r="IG14" t="n">
         <v>7</v>
       </c>
-      <c r="IH14" t="n">
-        <v>1</v>
+      <c r="IH14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
       </c>
       <c r="II14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="IJ14" t="n">
         <v>5</v>
       </c>
       <c r="IK14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="IL14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IM14" t="n">
         <v>4</v>
       </c>
       <c r="IN14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IO14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IP14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IQ14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IR14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IS14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IT14" t="n">
         <v>1</v>
       </c>
       <c r="IU14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IV14" t="n">
         <v>2</v>
@@ -14265,37 +14397,37 @@
         <v>2</v>
       </c>
       <c r="IX14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IY14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IZ14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JA14" t="n">
         <v>1</v>
       </c>
       <c r="JB14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="JC14" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD14" t="n">
         <v>20</v>
       </c>
-      <c r="JD14" t="n">
+      <c r="JE14" t="n">
         <v>5</v>
       </c>
-      <c r="JE14" t="n">
-        <v>1</v>
-      </c>
       <c r="JF14" t="n">
         <v>1</v>
       </c>
       <c r="JG14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="JH14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="JI14" t="n">
         <v>1</v>
@@ -14304,52 +14436,60 @@
         <v>1</v>
       </c>
       <c r="JK14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="JL14" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM14" t="n">
         <v>6</v>
       </c>
-      <c r="JM14" t="n">
-        <v>1</v>
-      </c>
       <c r="JN14" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO14" t="n">
         <v>6</v>
       </c>
-      <c r="JO14" t="n">
-        <v>2</v>
-      </c>
       <c r="JP14" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ14" t="n">
         <v>6</v>
       </c>
-      <c r="JQ14" t="n">
-        <v>1</v>
-      </c>
       <c r="JR14" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS14" t="n">
         <v>16</v>
       </c>
-      <c r="JS14" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT14" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU14" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU14" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV14" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW14" t="n">
         <v>5.3</v>
       </c>
-      <c r="JV14" t="n">
-        <v>2</v>
-      </c>
-      <c r="JW14" t="n">
+      <c r="JX14" t="n">
+        <v>2</v>
+      </c>
+      <c r="JY14" t="n">
         <v>4.7</v>
       </c>
-      <c r="JX14" t="n">
+      <c r="JZ14" t="n">
         <v>4.3</v>
       </c>
-      <c r="JY14" t="n">
+      <c r="KA14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15163,10 +15303,10 @@
         <v>29</v>
       </c>
       <c r="HY15" t="n">
+        <v>34</v>
+      </c>
+      <c r="HZ15" t="n">
         <v>16</v>
-      </c>
-      <c r="HZ15" t="n">
-        <v>34</v>
       </c>
       <c r="IA15" t="n">
         <v>11</v>
@@ -15189,48 +15329,50 @@
       <c r="IG15" t="n">
         <v>8</v>
       </c>
-      <c r="IH15" t="n">
-        <v>1</v>
+      <c r="IH15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
       </c>
       <c r="II15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IJ15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IK15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IL15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IM15" t="n">
         <v>2</v>
       </c>
       <c r="IN15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IO15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IP15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IQ15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IR15" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS15" t="n">
         <v>5</v>
       </c>
-      <c r="IS15" t="n">
-        <v>4</v>
-      </c>
       <c r="IT15" t="n">
+        <v>4</v>
+      </c>
+      <c r="IU15" t="n">
         <v>5</v>
       </c>
-      <c r="IU15" t="n">
-        <v>4</v>
-      </c>
       <c r="IV15" t="n">
         <v>4</v>
       </c>
@@ -15238,53 +15380,53 @@
         <v>4</v>
       </c>
       <c r="IX15" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY15" t="n">
         <v>5</v>
       </c>
-      <c r="IY15" t="n">
-        <v>4</v>
-      </c>
       <c r="IZ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JA15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JB15" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC15" t="n">
         <v>5</v>
       </c>
-      <c r="JC15" t="n">
+      <c r="JD15" t="n">
         <v>42</v>
       </c>
-      <c r="JD15" t="n">
-        <v>4</v>
-      </c>
       <c r="JE15" t="n">
+        <v>4</v>
+      </c>
+      <c r="JF15" t="n">
         <v>5</v>
       </c>
-      <c r="JF15" t="n">
-        <v>4</v>
-      </c>
       <c r="JG15" t="n">
         <v>4</v>
       </c>
       <c r="JH15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JI15" t="n">
+        <v>2</v>
+      </c>
+      <c r="JJ15" t="n">
         <v>5</v>
       </c>
-      <c r="JJ15" t="n">
-        <v>4</v>
-      </c>
       <c r="JK15" t="n">
         <v>4</v>
       </c>
       <c r="JL15" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM15" t="n">
         <v>15</v>
       </c>
-      <c r="JM15" t="n">
-        <v>1</v>
-      </c>
       <c r="JN15" t="n">
         <v>1</v>
       </c>
@@ -15292,37 +15434,45 @@
         <v>1</v>
       </c>
       <c r="JP15" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ15" t="n">
         <v>6</v>
       </c>
-      <c r="JQ15" t="n">
-        <v>1</v>
-      </c>
       <c r="JR15" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS15" t="n">
         <v>10</v>
       </c>
-      <c r="JS15" t="inlineStr">
-        <is>
-          <t>Bassa Frequenza</t>
-        </is>
-      </c>
       <c r="JT15" t="inlineStr">
         <is>
-          <t>Bassa Frequenza</t>
-        </is>
-      </c>
-      <c r="JU15" t="n">
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="JU15" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV15" t="inlineStr">
+        <is>
+          <t>Low Frequency</t>
+        </is>
+      </c>
+      <c r="JW15" t="n">
         <v>4.7</v>
       </c>
-      <c r="JV15" t="n">
+      <c r="JX15" t="n">
         <v>5.7</v>
       </c>
-      <c r="JW15" t="n">
+      <c r="JY15" t="n">
         <v>5</v>
       </c>
-      <c r="JX15" t="n">
+      <c r="JZ15" t="n">
         <v>5</v>
       </c>
-      <c r="JY15" t="n">
+      <c r="KA15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16136,10 +16286,10 @@
         <v>38</v>
       </c>
       <c r="HY16" t="n">
+        <v>29</v>
+      </c>
+      <c r="HZ16" t="n">
         <v>35</v>
-      </c>
-      <c r="HZ16" t="n">
-        <v>29</v>
       </c>
       <c r="IA16" t="n">
         <v>17</v>
@@ -16162,47 +16312,49 @@
       <c r="IG16" t="n">
         <v>3</v>
       </c>
-      <c r="IH16" t="n">
-        <v>1</v>
+      <c r="IH16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
       </c>
       <c r="II16" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ16" t="n">
         <v>5</v>
       </c>
-      <c r="IJ16" t="n">
-        <v>3</v>
-      </c>
       <c r="IK16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IL16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IM16" t="n">
         <v>1</v>
       </c>
       <c r="IN16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IO16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IP16" t="n">
         <v>1</v>
       </c>
       <c r="IQ16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IR16" t="n">
+        <v>2</v>
+      </c>
+      <c r="IS16" t="n">
         <v>5</v>
       </c>
-      <c r="IS16" t="n">
-        <v>1</v>
-      </c>
       <c r="IT16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IU16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="IV16" t="n">
         <v>5</v>
@@ -16211,31 +16363,31 @@
         <v>5</v>
       </c>
       <c r="IX16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="IY16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IZ16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JA16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="JB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="JC16" t="n">
         <v>5</v>
       </c>
-      <c r="JC16" t="n">
+      <c r="JD16" t="n">
         <v>34</v>
       </c>
-      <c r="JD16" t="n">
-        <v>3</v>
-      </c>
       <c r="JE16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JF16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JG16" t="n">
         <v>3</v>
@@ -16244,58 +16396,66 @@
         <v>3</v>
       </c>
       <c r="JI16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JJ16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JK16" t="n">
         <v>3</v>
       </c>
       <c r="JL16" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM16" t="n">
         <v>13</v>
       </c>
-      <c r="JM16" t="n">
-        <v>2</v>
-      </c>
       <c r="JN16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JO16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="JP16" t="n">
         <v>6</v>
       </c>
       <c r="JQ16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="JR16" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS16" t="n">
         <v>18</v>
       </c>
-      <c r="JS16" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT16" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="JV16" t="n">
-        <v>4</v>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU16" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV16" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
       </c>
       <c r="JW16" t="n">
         <v>4.7</v>
       </c>
       <c r="JX16" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="JZ16" t="n">
         <v>5.7</v>
       </c>
-      <c r="JY16" t="n">
+      <c r="KA16" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -17113,10 +17273,10 @@
         <v>37</v>
       </c>
       <c r="HY17" t="n">
+        <v>19</v>
+      </c>
+      <c r="HZ17" t="n">
         <v>33</v>
-      </c>
-      <c r="HZ17" t="n">
-        <v>19</v>
       </c>
       <c r="IA17" t="n">
         <v>10</v>
@@ -17139,83 +17299,85 @@
       <c r="IG17" t="n">
         <v>6</v>
       </c>
-      <c r="IH17" t="n">
-        <v>1</v>
+      <c r="IH17" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
       </c>
       <c r="II17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IJ17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IK17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IL17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IM17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IN17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IO17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IP17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IQ17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IR17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IS17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IT17" t="n">
+        <v>2</v>
+      </c>
+      <c r="IU17" t="n">
         <v>5</v>
       </c>
-      <c r="IU17" t="n">
-        <v>3</v>
-      </c>
       <c r="IV17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IW17" t="n">
         <v>4</v>
       </c>
       <c r="IX17" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY17" t="n">
         <v>5</v>
       </c>
-      <c r="IY17" t="n">
-        <v>4</v>
-      </c>
       <c r="IZ17" t="n">
         <v>4</v>
       </c>
       <c r="JA17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JB17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JC17" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD17" t="n">
         <v>38</v>
       </c>
-      <c r="JD17" t="n">
-        <v>4</v>
-      </c>
       <c r="JE17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JF17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JG17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="JH17" t="n">
         <v>2</v>
@@ -17224,55 +17386,63 @@
         <v>2</v>
       </c>
       <c r="JJ17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JK17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="JL17" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM17" t="n">
         <v>7</v>
       </c>
-      <c r="JM17" t="n">
-        <v>1</v>
-      </c>
       <c r="JN17" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO17" t="n">
         <v>6</v>
       </c>
-      <c r="JO17" t="n">
-        <v>1</v>
-      </c>
       <c r="JP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ17" t="n">
         <v>6</v>
       </c>
-      <c r="JQ17" t="n">
-        <v>2</v>
-      </c>
       <c r="JR17" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS17" t="n">
         <v>16</v>
       </c>
-      <c r="JS17" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT17" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU17" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU17" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV17" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW17" t="n">
         <v>5.3</v>
       </c>
-      <c r="JV17" t="n">
+      <c r="JX17" t="n">
         <v>4.3</v>
       </c>
-      <c r="JW17" t="n">
+      <c r="JY17" t="n">
         <v>5</v>
       </c>
-      <c r="JX17" t="n">
+      <c r="JZ17" t="n">
         <v>4.7</v>
       </c>
-      <c r="JY17" t="n">
+      <c r="KA17" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18086,10 +18256,10 @@
         <v>37</v>
       </c>
       <c r="HY18" t="n">
+        <v>31</v>
+      </c>
+      <c r="HZ18" t="n">
         <v>33</v>
-      </c>
-      <c r="HZ18" t="n">
-        <v>31</v>
       </c>
       <c r="IA18" t="n">
         <v>14</v>
@@ -18112,60 +18282,62 @@
       <c r="IG18" t="n">
         <v>6</v>
       </c>
-      <c r="IH18" t="n">
-        <v>1</v>
+      <c r="IH18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
       </c>
       <c r="II18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IJ18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IK18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IL18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IM18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IN18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IO18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IP18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IQ18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IR18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IS18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IT18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IU18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IV18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IW18" t="n">
         <v>4</v>
       </c>
       <c r="IX18" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY18" t="n">
         <v>5</v>
       </c>
-      <c r="IY18" t="n">
-        <v>4</v>
-      </c>
       <c r="IZ18" t="n">
         <v>4</v>
       </c>
@@ -18176,76 +18348,84 @@
         <v>4</v>
       </c>
       <c r="JC18" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD18" t="n">
         <v>38</v>
       </c>
-      <c r="JD18" t="n">
-        <v>2</v>
-      </c>
       <c r="JE18" t="n">
         <v>2</v>
       </c>
       <c r="JF18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JG18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="JH18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JI18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JJ18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JK18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="JL18" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM18" t="n">
         <v>11</v>
       </c>
-      <c r="JM18" t="n">
-        <v>1</v>
-      </c>
       <c r="JN18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="JO18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JP18" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ18" t="n">
         <v>6</v>
       </c>
-      <c r="JQ18" t="n">
+      <c r="JR18" t="n">
         <v>5</v>
       </c>
-      <c r="JR18" t="n">
+      <c r="JS18" t="n">
         <v>19</v>
       </c>
-      <c r="JS18" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT18" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU18" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU18" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV18" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW18" t="n">
         <v>4.7</v>
       </c>
-      <c r="JV18" t="n">
+      <c r="JX18" t="n">
         <v>3.7</v>
       </c>
-      <c r="JW18" t="n">
+      <c r="JY18" t="n">
         <v>3.7</v>
       </c>
-      <c r="JX18" t="n">
+      <c r="JZ18" t="n">
         <v>5</v>
       </c>
-      <c r="JY18" t="n">
+      <c r="KA18" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -19059,10 +19239,10 @@
         <v>30</v>
       </c>
       <c r="HY19" t="n">
+        <v>26</v>
+      </c>
+      <c r="HZ19" t="n">
         <v>34</v>
-      </c>
-      <c r="HZ19" t="n">
-        <v>26</v>
       </c>
       <c r="IA19" t="n">
         <v>24</v>
@@ -19085,11 +19265,13 @@
       <c r="IG19" t="n">
         <v>6</v>
       </c>
-      <c r="IH19" t="n">
-        <v>1</v>
+      <c r="IH19" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
       </c>
       <c r="II19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IJ19" t="n">
         <v>3</v>
@@ -19098,7 +19280,7 @@
         <v>3</v>
       </c>
       <c r="IL19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IM19" t="n">
         <v>2</v>
@@ -19107,56 +19289,56 @@
         <v>2</v>
       </c>
       <c r="IO19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IP19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IQ19" t="n">
         <v>2</v>
       </c>
       <c r="IR19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IS19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IT19" t="n">
         <v>3</v>
       </c>
       <c r="IU19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IV19" t="n">
         <v>4</v>
       </c>
       <c r="IW19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IX19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IY19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IZ19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="JA19" t="n">
         <v>2</v>
       </c>
       <c r="JB19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JC19" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD19" t="n">
         <v>32</v>
       </c>
-      <c r="JD19" t="n">
+      <c r="JE19" t="n">
         <v>5</v>
       </c>
-      <c r="JE19" t="n">
-        <v>4</v>
-      </c>
       <c r="JF19" t="n">
         <v>4</v>
       </c>
@@ -19164,10 +19346,10 @@
         <v>4</v>
       </c>
       <c r="JH19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="JI19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="JJ19" t="n">
         <v>4</v>
@@ -19176,49 +19358,57 @@
         <v>4</v>
       </c>
       <c r="JL19" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM19" t="n">
         <v>13</v>
-      </c>
-      <c r="JM19" t="n">
-        <v>6</v>
       </c>
       <c r="JN19" t="n">
         <v>6</v>
       </c>
       <c r="JO19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="JP19" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ19" t="n">
         <v>6</v>
       </c>
-      <c r="JQ19" t="n">
-        <v>4</v>
-      </c>
       <c r="JR19" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS19" t="n">
         <v>23</v>
       </c>
-      <c r="JS19" t="inlineStr">
-        <is>
-          <t>Alta Frequenza</t>
-        </is>
-      </c>
       <c r="JT19" t="inlineStr">
         <is>
-          <t>Alta Frequenza</t>
-        </is>
-      </c>
-      <c r="JU19" t="n">
+          <t>High</t>
+        </is>
+      </c>
+      <c r="JU19" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV19" t="inlineStr">
+        <is>
+          <t>High Frequency</t>
+        </is>
+      </c>
+      <c r="JW19" t="n">
         <v>3.3</v>
       </c>
-      <c r="JV19" t="n">
-        <v>3</v>
-      </c>
-      <c r="JW19" t="n">
+      <c r="JX19" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY19" t="n">
         <v>5</v>
       </c>
-      <c r="JX19" t="n">
+      <c r="JZ19" t="n">
         <v>5.7</v>
       </c>
-      <c r="JY19" t="n">
+      <c r="KA19" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -20036,10 +20226,10 @@
         <v>31</v>
       </c>
       <c r="HY20" t="n">
+        <v>17</v>
+      </c>
+      <c r="HZ20" t="n">
         <v>38</v>
-      </c>
-      <c r="HZ20" t="n">
-        <v>17</v>
       </c>
       <c r="IA20" t="n">
         <v>11</v>
@@ -20062,140 +20252,150 @@
       <c r="IG20" t="n">
         <v>5</v>
       </c>
-      <c r="IH20" t="n">
-        <v>1</v>
+      <c r="IH20" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
       </c>
       <c r="II20" t="n">
         <v>1</v>
       </c>
       <c r="IJ20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL20" t="n">
         <v>5</v>
       </c>
-      <c r="IL20" t="n">
-        <v>3</v>
-      </c>
       <c r="IM20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IN20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IO20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IP20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IQ20" t="n">
         <v>4</v>
       </c>
       <c r="IR20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="IS20" t="n">
         <v>5</v>
       </c>
       <c r="IT20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="IU20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IV20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IW20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IX20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IY20" t="n">
+        <v>2</v>
+      </c>
+      <c r="IZ20" t="n">
         <v>5</v>
       </c>
-      <c r="IZ20" t="n">
-        <v>4</v>
-      </c>
       <c r="JA20" t="n">
         <v>4</v>
       </c>
       <c r="JB20" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC20" t="n">
         <v>5</v>
       </c>
-      <c r="JC20" t="n">
+      <c r="JD20" t="n">
         <v>39</v>
       </c>
-      <c r="JD20" t="n">
-        <v>4</v>
-      </c>
       <c r="JE20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="JF20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="JG20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JH20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JI20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JJ20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="JK20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JL20" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM20" t="n">
         <v>9</v>
       </c>
-      <c r="JM20" t="n">
-        <v>1</v>
-      </c>
       <c r="JN20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="JO20" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP20" t="n">
         <v>5</v>
       </c>
-      <c r="JP20" t="n">
+      <c r="JQ20" t="n">
         <v>6</v>
       </c>
-      <c r="JQ20" t="n">
-        <v>3</v>
-      </c>
       <c r="JR20" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS20" t="n">
         <v>18</v>
       </c>
-      <c r="JS20" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT20" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU20" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU20" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV20" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW20" t="n">
         <v>3.3</v>
       </c>
-      <c r="JV20" t="n">
+      <c r="JX20" t="n">
         <v>2.7</v>
       </c>
-      <c r="JW20" t="n">
+      <c r="JY20" t="n">
         <v>7</v>
       </c>
-      <c r="JX20" t="n">
+      <c r="JZ20" t="n">
         <v>6</v>
       </c>
-      <c r="JY20" t="n">
+      <c r="KA20" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -21009,10 +21209,10 @@
         <v>23</v>
       </c>
       <c r="HY21" t="n">
+        <v>24</v>
+      </c>
+      <c r="HZ21" t="n">
         <v>26</v>
-      </c>
-      <c r="HZ21" t="n">
-        <v>24</v>
       </c>
       <c r="IA21" t="n">
         <v>12</v>
@@ -21035,38 +21235,40 @@
       <c r="IG21" t="n">
         <v>6</v>
       </c>
-      <c r="IH21" t="n">
-        <v>1</v>
+      <c r="IH21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
       </c>
       <c r="II21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IJ21" t="n">
         <v>2</v>
       </c>
       <c r="IK21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IL21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IM21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IN21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IO21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IP21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IQ21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IR21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IS21" t="n">
         <v>4</v>
@@ -21078,14 +21280,14 @@
         <v>4</v>
       </c>
       <c r="IV21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IW21" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX21" t="n">
         <v>5</v>
       </c>
-      <c r="IX21" t="n">
-        <v>4</v>
-      </c>
       <c r="IY21" t="n">
         <v>4</v>
       </c>
@@ -21099,76 +21301,84 @@
         <v>4</v>
       </c>
       <c r="JC21" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD21" t="n">
         <v>40</v>
       </c>
-      <c r="JD21" t="n">
-        <v>4</v>
-      </c>
       <c r="JE21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="JF21" t="n">
         <v>1</v>
       </c>
       <c r="JG21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="JH21" t="n">
         <v>2</v>
       </c>
       <c r="JI21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JJ21" t="n">
         <v>1</v>
       </c>
       <c r="JK21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="JL21" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM21" t="n">
         <v>6</v>
       </c>
-      <c r="JM21" t="n">
-        <v>2</v>
-      </c>
       <c r="JN21" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO21" t="n">
         <v>6</v>
       </c>
-      <c r="JO21" t="n">
-        <v>3</v>
-      </c>
       <c r="JP21" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ21" t="n">
         <v>6</v>
       </c>
-      <c r="JQ21" t="n">
-        <v>3</v>
-      </c>
       <c r="JR21" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS21" t="n">
         <v>20</v>
       </c>
-      <c r="JS21" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT21" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU21" t="n">
-        <v>3</v>
-      </c>
-      <c r="JV21" t="n">
-        <v>4</v>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU21" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV21" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
       </c>
       <c r="JW21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JX21" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY21" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ21" t="n">
         <v>5.7</v>
       </c>
-      <c r="JY21" t="n">
+      <c r="KA21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -21982,10 +22192,10 @@
         <v>27</v>
       </c>
       <c r="HY22" t="n">
+        <v>27</v>
+      </c>
+      <c r="HZ22" t="n">
         <v>26</v>
-      </c>
-      <c r="HZ22" t="n">
-        <v>27</v>
       </c>
       <c r="IA22" t="n">
         <v>22</v>
@@ -22008,86 +22218,88 @@
       <c r="IG22" t="n">
         <v>6</v>
       </c>
-      <c r="IH22" t="n">
-        <v>1</v>
+      <c r="IH22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
       </c>
       <c r="II22" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ22" t="n">
         <v>5</v>
       </c>
-      <c r="IJ22" t="n">
-        <v>2</v>
-      </c>
       <c r="IK22" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL22" t="n">
         <v>5</v>
       </c>
-      <c r="IL22" t="n">
-        <v>3</v>
-      </c>
       <c r="IM22" t="n">
+        <v>3</v>
+      </c>
+      <c r="IN22" t="n">
         <v>5</v>
       </c>
-      <c r="IN22" t="n">
-        <v>3</v>
-      </c>
       <c r="IO22" t="n">
         <v>3</v>
       </c>
       <c r="IP22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IQ22" t="n">
         <v>2</v>
       </c>
       <c r="IR22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IS22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IT22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IU22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IV22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IW22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IX22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IY22" t="n">
+        <v>4</v>
+      </c>
+      <c r="IZ22" t="n">
         <v>5</v>
       </c>
-      <c r="IZ22" t="n">
-        <v>3</v>
-      </c>
       <c r="JA22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="JB22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JC22" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD22" t="n">
         <v>30</v>
       </c>
-      <c r="JD22" t="n">
-        <v>4</v>
-      </c>
       <c r="JE22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JF22" t="n">
         <v>2</v>
       </c>
       <c r="JG22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JH22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JI22" t="n">
         <v>2</v>
@@ -22096,52 +22308,60 @@
         <v>2</v>
       </c>
       <c r="JK22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JL22" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM22" t="n">
         <v>10</v>
       </c>
-      <c r="JM22" t="n">
-        <v>1</v>
-      </c>
       <c r="JN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO22" t="n">
         <v>6</v>
       </c>
-      <c r="JO22" t="n">
-        <v>1</v>
-      </c>
       <c r="JP22" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ22" t="n">
         <v>6</v>
       </c>
-      <c r="JQ22" t="n">
-        <v>2</v>
-      </c>
       <c r="JR22" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS22" t="n">
         <v>16</v>
       </c>
-      <c r="JS22" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT22" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU22" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU22" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV22" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW22" t="n">
         <v>5.7</v>
       </c>
-      <c r="JV22" t="n">
+      <c r="JX22" t="n">
         <v>2.3</v>
       </c>
-      <c r="JW22" t="n">
-        <v>4</v>
-      </c>
-      <c r="JX22" t="n">
+      <c r="JY22" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ22" t="n">
         <v>7</v>
       </c>
-      <c r="JY22" t="n">
+      <c r="KA22" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -22923,10 +23143,10 @@
         <v>36</v>
       </c>
       <c r="HY23" t="n">
+        <v>25</v>
+      </c>
+      <c r="HZ23" t="n">
         <v>34</v>
-      </c>
-      <c r="HZ23" t="n">
-        <v>25</v>
       </c>
       <c r="IA23" t="n">
         <v>15</v>
@@ -22949,32 +23169,34 @@
       <c r="IG23" t="n">
         <v>5</v>
       </c>
-      <c r="IH23" t="n">
-        <v>1</v>
+      <c r="IH23" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
       </c>
       <c r="II23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IJ23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IK23" t="n">
         <v>4</v>
       </c>
       <c r="IL23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IM23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IN23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IO23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IP23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IQ23" t="n">
         <v>4</v>
@@ -22983,25 +23205,25 @@
         <v>4</v>
       </c>
       <c r="IS23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IT23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IU23" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV23" t="n">
         <v>5</v>
       </c>
-      <c r="IV23" t="n">
-        <v>4</v>
-      </c>
       <c r="IW23" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX23" t="n">
         <v>5</v>
       </c>
-      <c r="IX23" t="n">
-        <v>2</v>
-      </c>
       <c r="IY23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IZ23" t="n">
         <v>4</v>
@@ -23013,40 +23235,40 @@
         <v>4</v>
       </c>
       <c r="JC23" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD23" t="n">
         <v>37</v>
       </c>
-      <c r="JD23" t="n">
-        <v>2</v>
-      </c>
       <c r="JE23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JF23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JG23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JH23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JI23" t="n">
         <v>4</v>
       </c>
       <c r="JJ23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JK23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JL23" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM23" t="n">
         <v>13</v>
       </c>
-      <c r="JM23" t="n">
-        <v>1</v>
-      </c>
       <c r="JN23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="JO23" t="n">
         <v>6</v>
@@ -23055,34 +23277,42 @@
         <v>6</v>
       </c>
       <c r="JQ23" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR23" t="n">
         <v>5</v>
       </c>
-      <c r="JR23" t="n">
+      <c r="JS23" t="n">
         <v>24</v>
       </c>
-      <c r="JS23" t="inlineStr">
-        <is>
-          <t>Alta Frequenza</t>
-        </is>
-      </c>
       <c r="JT23" t="inlineStr">
         <is>
-          <t>Alta Frequenza</t>
-        </is>
-      </c>
-      <c r="JU23" t="n">
+          <t>High</t>
+        </is>
+      </c>
+      <c r="JU23" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV23" t="inlineStr">
+        <is>
+          <t>High Frequency</t>
+        </is>
+      </c>
+      <c r="JW23" t="n">
         <v>2.7</v>
       </c>
-      <c r="JV23" t="n">
+      <c r="JX23" t="n">
         <v>5</v>
       </c>
-      <c r="JW23" t="n">
+      <c r="JY23" t="n">
         <v>5.7</v>
       </c>
-      <c r="JX23" t="n">
+      <c r="JZ23" t="n">
         <v>5.3</v>
       </c>
-      <c r="JY23" t="n">
+      <c r="KA23" t="n">
         <v>6</v>
       </c>
     </row>
@@ -23896,10 +24126,10 @@
         <v>33</v>
       </c>
       <c r="HY24" t="n">
+        <v>24</v>
+      </c>
+      <c r="HZ24" t="n">
         <v>30</v>
-      </c>
-      <c r="HZ24" t="n">
-        <v>24</v>
       </c>
       <c r="IA24" t="n">
         <v>12</v>
@@ -23922,44 +24152,46 @@
       <c r="IG24" t="n">
         <v>3</v>
       </c>
-      <c r="IH24" t="n">
-        <v>1</v>
+      <c r="IH24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
       </c>
       <c r="II24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IJ24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IK24" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL24" t="n">
         <v>5</v>
       </c>
-      <c r="IL24" t="n">
-        <v>1</v>
-      </c>
       <c r="IM24" t="n">
         <v>1</v>
       </c>
       <c r="IN24" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO24" t="n">
         <v>5</v>
       </c>
-      <c r="IO24" t="n">
-        <v>1</v>
-      </c>
       <c r="IP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ24" t="n">
         <v>5</v>
       </c>
-      <c r="IQ24" t="n">
-        <v>2</v>
-      </c>
       <c r="IR24" t="n">
+        <v>2</v>
+      </c>
+      <c r="IS24" t="n">
         <v>5</v>
       </c>
-      <c r="IS24" t="n">
-        <v>4</v>
-      </c>
       <c r="IT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="IU24" t="n">
         <v>5</v>
@@ -23971,10 +24203,10 @@
         <v>5</v>
       </c>
       <c r="IX24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="IY24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="IZ24" t="n">
         <v>5</v>
@@ -23986,76 +24218,84 @@
         <v>5</v>
       </c>
       <c r="JC24" t="n">
+        <v>5</v>
+      </c>
+      <c r="JD24" t="n">
         <v>48</v>
       </c>
-      <c r="JD24" t="n">
-        <v>2</v>
-      </c>
       <c r="JE24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JF24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="JG24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="JH24" t="n">
         <v>4</v>
       </c>
       <c r="JI24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JJ24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="JK24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="JL24" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM24" t="n">
         <v>12</v>
       </c>
-      <c r="JM24" t="n">
-        <v>2</v>
-      </c>
       <c r="JN24" t="n">
         <v>2</v>
       </c>
       <c r="JO24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ24" t="n">
         <v>6</v>
       </c>
-      <c r="JQ24" t="n">
-        <v>3</v>
-      </c>
       <c r="JR24" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS24" t="n">
         <v>14</v>
       </c>
-      <c r="JS24" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT24" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU24" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU24" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV24" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW24" t="n">
         <v>4.3</v>
       </c>
-      <c r="JV24" t="n">
+      <c r="JX24" t="n">
         <v>3.7</v>
       </c>
-      <c r="JW24" t="n">
+      <c r="JY24" t="n">
         <v>4.7</v>
       </c>
-      <c r="JX24" t="n">
+      <c r="JZ24" t="n">
         <v>6.7</v>
       </c>
-      <c r="JY24" t="n">
+      <c r="KA24" t="n">
         <v>5.7</v>
       </c>
     </row>
@@ -24869,10 +25109,10 @@
         <v>42</v>
       </c>
       <c r="HY25" t="n">
+        <v>15</v>
+      </c>
+      <c r="HZ25" t="n">
         <v>44</v>
-      </c>
-      <c r="HZ25" t="n">
-        <v>15</v>
       </c>
       <c r="IA25" t="n">
         <v>15</v>
@@ -24895,38 +25135,40 @@
       <c r="IG25" t="n">
         <v>5</v>
       </c>
-      <c r="IH25" t="n">
-        <v>1</v>
+      <c r="IH25" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
       </c>
       <c r="II25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IJ25" t="n">
         <v>2</v>
       </c>
       <c r="IK25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IL25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IM25" t="n">
         <v>1</v>
       </c>
       <c r="IN25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IO25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IP25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IQ25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IR25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IS25" t="n">
         <v>4</v>
@@ -24935,7 +25177,7 @@
         <v>4</v>
       </c>
       <c r="IU25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="IV25" t="n">
         <v>5</v>
@@ -24947,88 +25189,96 @@
         <v>5</v>
       </c>
       <c r="IY25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="IZ25" t="n">
         <v>3</v>
       </c>
       <c r="JA25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JB25" t="n">
         <v>4</v>
       </c>
       <c r="JC25" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD25" t="n">
         <v>42</v>
       </c>
-      <c r="JD25" t="n">
-        <v>4</v>
-      </c>
       <c r="JE25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="JF25" t="n">
         <v>1</v>
       </c>
       <c r="JG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH25" t="n">
         <v>5</v>
       </c>
-      <c r="JH25" t="n">
-        <v>2</v>
-      </c>
       <c r="JI25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JJ25" t="n">
         <v>1</v>
       </c>
       <c r="JK25" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL25" t="n">
         <v>5</v>
       </c>
-      <c r="JL25" t="n">
+      <c r="JM25" t="n">
         <v>9</v>
       </c>
-      <c r="JM25" t="n">
+      <c r="JN25" t="n">
         <v>5</v>
       </c>
-      <c r="JN25" t="n">
-        <v>1</v>
-      </c>
       <c r="JO25" t="n">
         <v>1</v>
       </c>
       <c r="JP25" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ25" t="n">
         <v>6</v>
       </c>
-      <c r="JQ25" t="n">
-        <v>1</v>
-      </c>
       <c r="JR25" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS25" t="n">
         <v>14</v>
       </c>
-      <c r="JS25" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT25" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU25" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU25" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV25" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW25" t="n">
         <v>3.7</v>
       </c>
-      <c r="JV25" t="n">
+      <c r="JX25" t="n">
         <v>3.7</v>
       </c>
-      <c r="JW25" t="n">
+      <c r="JY25" t="n">
         <v>5.3</v>
       </c>
-      <c r="JX25" t="n">
-        <v>4</v>
-      </c>
-      <c r="JY25" t="n">
+      <c r="JZ25" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA25" t="n">
         <v>5.7</v>
       </c>
     </row>
@@ -25842,10 +26092,10 @@
         <v>37</v>
       </c>
       <c r="HY26" t="n">
+        <v>12</v>
+      </c>
+      <c r="HZ26" t="n">
         <v>35</v>
-      </c>
-      <c r="HZ26" t="n">
-        <v>12</v>
       </c>
       <c r="IA26" t="n">
         <v>29</v>
@@ -25868,50 +26118,52 @@
       <c r="IG26" t="n">
         <v>5</v>
       </c>
-      <c r="IH26" t="n">
+      <c r="IH26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="II26" t="n">
         <v>0</v>
       </c>
-      <c r="II26" t="n">
-        <v>4</v>
-      </c>
       <c r="IJ26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IK26" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL26" t="n">
         <v>5</v>
       </c>
-      <c r="IL26" t="n">
-        <v>2</v>
-      </c>
       <c r="IM26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IN26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IO26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IP26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IQ26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IR26" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS26" t="n">
         <v>5</v>
       </c>
-      <c r="IS26" t="n">
-        <v>2</v>
-      </c>
       <c r="IT26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IU26" t="n">
         <v>4</v>
       </c>
       <c r="IV26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="IW26" t="n">
         <v>5</v>
@@ -25923,23 +26175,23 @@
         <v>5</v>
       </c>
       <c r="IZ26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="JA26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JB26" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC26" t="n">
         <v>5</v>
       </c>
-      <c r="JC26" t="n">
+      <c r="JD26" t="n">
         <v>42</v>
       </c>
-      <c r="JD26" t="n">
+      <c r="JE26" t="n">
         <v>5</v>
       </c>
-      <c r="JE26" t="n">
-        <v>4</v>
-      </c>
       <c r="JF26" t="n">
         <v>4</v>
       </c>
@@ -25947,10 +26199,10 @@
         <v>4</v>
       </c>
       <c r="JH26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="JI26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="JJ26" t="n">
         <v>4</v>
@@ -25959,49 +26211,57 @@
         <v>4</v>
       </c>
       <c r="JL26" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM26" t="n">
         <v>13</v>
       </c>
-      <c r="JM26" t="n">
-        <v>1</v>
-      </c>
       <c r="JN26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="JO26" t="n">
         <v>3</v>
       </c>
       <c r="JP26" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ26" t="n">
         <v>6</v>
       </c>
-      <c r="JQ26" t="n">
-        <v>1</v>
-      </c>
       <c r="JR26" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS26" t="n">
         <v>14</v>
       </c>
-      <c r="JS26" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT26" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU26" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU26" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV26" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW26" t="n">
         <v>3.3</v>
       </c>
-      <c r="JV26" t="n">
+      <c r="JX26" t="n">
         <v>5</v>
       </c>
-      <c r="JW26" t="n">
+      <c r="JY26" t="n">
         <v>5.7</v>
       </c>
-      <c r="JX26" t="n">
+      <c r="JZ26" t="n">
         <v>5.3</v>
       </c>
-      <c r="JY26" t="n">
+      <c r="KA26" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26819,10 +27079,10 @@
         <v>29</v>
       </c>
       <c r="HY27" t="n">
+        <v>17</v>
+      </c>
+      <c r="HZ27" t="n">
         <v>40</v>
-      </c>
-      <c r="HZ27" t="n">
-        <v>17</v>
       </c>
       <c r="IA27" t="n">
         <v>21</v>
@@ -26845,32 +27105,34 @@
       <c r="IG27" t="n">
         <v>6</v>
       </c>
-      <c r="IH27" t="n">
+      <c r="IH27" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="II27" t="n">
         <v>0</v>
       </c>
-      <c r="II27" t="n">
-        <v>2</v>
-      </c>
       <c r="IJ27" t="n">
         <v>2</v>
       </c>
       <c r="IK27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IL27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IM27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IN27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IO27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IP27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IQ27" t="n">
         <v>4</v>
@@ -26888,32 +27150,32 @@
         <v>4</v>
       </c>
       <c r="IV27" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW27" t="n">
         <v>5</v>
       </c>
-      <c r="IW27" t="n">
-        <v>4</v>
-      </c>
       <c r="IX27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IY27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IZ27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JA27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JB27" t="n">
         <v>4</v>
       </c>
       <c r="JC27" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD27" t="n">
         <v>38</v>
       </c>
-      <c r="JD27" t="n">
-        <v>3</v>
-      </c>
       <c r="JE27" t="n">
         <v>3</v>
       </c>
@@ -26936,49 +27198,57 @@
         <v>3</v>
       </c>
       <c r="JL27" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM27" t="n">
         <v>12</v>
       </c>
-      <c r="JM27" t="n">
+      <c r="JN27" t="n">
         <v>6</v>
       </c>
-      <c r="JN27" t="n">
-        <v>1</v>
-      </c>
       <c r="JO27" t="n">
         <v>1</v>
       </c>
       <c r="JP27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="JQ27" t="n">
         <v>6</v>
       </c>
       <c r="JR27" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS27" t="n">
         <v>20</v>
       </c>
-      <c r="JS27" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT27" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU27" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU27" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV27" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW27" t="n">
         <v>3.7</v>
       </c>
-      <c r="JV27" t="n">
+      <c r="JX27" t="n">
         <v>4.3</v>
       </c>
-      <c r="JW27" t="n">
+      <c r="JY27" t="n">
         <v>4.7</v>
       </c>
-      <c r="JX27" t="n">
+      <c r="JZ27" t="n">
         <v>5.3</v>
       </c>
-      <c r="JY27" t="n">
+      <c r="KA27" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27792,10 +28062,10 @@
         <v>35</v>
       </c>
       <c r="HY28" t="n">
+        <v>24</v>
+      </c>
+      <c r="HZ28" t="n">
         <v>34</v>
-      </c>
-      <c r="HZ28" t="n">
-        <v>24</v>
       </c>
       <c r="IA28" t="n">
         <v>13</v>
@@ -27818,44 +28088,46 @@
       <c r="IG28" t="n">
         <v>5</v>
       </c>
-      <c r="IH28" t="n">
+      <c r="IH28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="II28" t="n">
         <v>0</v>
       </c>
-      <c r="II28" t="n">
-        <v>2</v>
-      </c>
       <c r="IJ28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IK28" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL28" t="n">
         <v>5</v>
       </c>
-      <c r="IL28" t="n">
-        <v>1</v>
-      </c>
       <c r="IM28" t="n">
         <v>1</v>
       </c>
       <c r="IN28" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO28" t="n">
         <v>5</v>
       </c>
-      <c r="IO28" t="n">
-        <v>1</v>
-      </c>
       <c r="IP28" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ28" t="n">
         <v>5</v>
       </c>
-      <c r="IQ28" t="n">
-        <v>1</v>
-      </c>
       <c r="IR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS28" t="n">
         <v>5</v>
       </c>
-      <c r="IS28" t="n">
-        <v>4</v>
-      </c>
       <c r="IT28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="IU28" t="n">
         <v>5</v>
@@ -27882,22 +28154,22 @@
         <v>5</v>
       </c>
       <c r="JC28" t="n">
+        <v>5</v>
+      </c>
+      <c r="JD28" t="n">
         <v>49</v>
       </c>
-      <c r="JD28" t="n">
-        <v>2</v>
-      </c>
       <c r="JE28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JF28" t="n">
         <v>4</v>
       </c>
       <c r="JG28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JH28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JI28" t="n">
         <v>4</v>
@@ -27906,52 +28178,60 @@
         <v>4</v>
       </c>
       <c r="JK28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JL28" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM28" t="n">
         <v>15</v>
       </c>
-      <c r="JM28" t="n">
+      <c r="JN28" t="n">
         <v>6</v>
       </c>
-      <c r="JN28" t="n">
-        <v>2</v>
-      </c>
       <c r="JO28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="JP28" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ28" t="n">
         <v>6</v>
       </c>
-      <c r="JQ28" t="n">
+      <c r="JR28" t="n">
         <v>5</v>
       </c>
-      <c r="JR28" t="n">
+      <c r="JS28" t="n">
         <v>20</v>
       </c>
-      <c r="JS28" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT28" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU28" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU28" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV28" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW28" t="n">
         <v>4.3</v>
       </c>
-      <c r="JV28" t="n">
+      <c r="JX28" t="n">
         <v>5.3</v>
       </c>
-      <c r="JW28" t="n">
+      <c r="JY28" t="n">
         <v>4.7</v>
       </c>
-      <c r="JX28" t="n">
+      <c r="JZ28" t="n">
         <v>4.3</v>
       </c>
-      <c r="JY28" t="n">
+      <c r="KA28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -28765,10 +29045,10 @@
         <v>33</v>
       </c>
       <c r="HY29" t="n">
+        <v>20</v>
+      </c>
+      <c r="HZ29" t="n">
         <v>31</v>
-      </c>
-      <c r="HZ29" t="n">
-        <v>20</v>
       </c>
       <c r="IA29" t="n">
         <v>15</v>
@@ -28791,44 +29071,46 @@
       <c r="IG29" t="n">
         <v>8</v>
       </c>
-      <c r="IH29" t="n">
-        <v>1</v>
+      <c r="IH29" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
       </c>
       <c r="II29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IJ29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IK29" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL29" t="n">
         <v>5</v>
       </c>
-      <c r="IL29" t="n">
-        <v>1</v>
-      </c>
       <c r="IM29" t="n">
         <v>1</v>
       </c>
       <c r="IN29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IO29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IP29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IQ29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="IR29" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS29" t="n">
         <v>5</v>
       </c>
-      <c r="IS29" t="n">
-        <v>4</v>
-      </c>
       <c r="IT29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="IU29" t="n">
         <v>5</v>
@@ -28846,85 +29128,93 @@
         <v>5</v>
       </c>
       <c r="IZ29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="JA29" t="n">
         <v>4</v>
       </c>
       <c r="JB29" t="n">
+        <v>4</v>
+      </c>
+      <c r="JC29" t="n">
         <v>5</v>
       </c>
-      <c r="JC29" t="n">
+      <c r="JD29" t="n">
         <v>47</v>
       </c>
-      <c r="JD29" t="n">
-        <v>4</v>
-      </c>
       <c r="JE29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JF29" t="n">
         <v>3</v>
       </c>
       <c r="JG29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JH29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JI29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JJ29" t="n">
         <v>3</v>
       </c>
       <c r="JK29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JL29" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM29" t="n">
         <v>12</v>
       </c>
-      <c r="JM29" t="n">
-        <v>1</v>
-      </c>
       <c r="JN29" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO29" t="n">
         <v>6</v>
       </c>
-      <c r="JO29" t="n">
-        <v>1</v>
-      </c>
       <c r="JP29" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ29" t="n">
         <v>6</v>
       </c>
-      <c r="JQ29" t="n">
-        <v>1</v>
-      </c>
       <c r="JR29" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS29" t="n">
         <v>15</v>
       </c>
-      <c r="JS29" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT29" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU29" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU29" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV29" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW29" t="n">
         <v>4.7</v>
       </c>
-      <c r="JV29" t="n">
+      <c r="JX29" t="n">
         <v>5</v>
       </c>
-      <c r="JW29" t="n">
+      <c r="JY29" t="n">
         <v>5.7</v>
       </c>
-      <c r="JX29" t="n">
+      <c r="JZ29" t="n">
         <v>6.3</v>
       </c>
-      <c r="JY29" t="n">
+      <c r="KA29" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -29738,10 +30028,10 @@
         <v>28</v>
       </c>
       <c r="HY30" t="n">
+        <v>19</v>
+      </c>
+      <c r="HZ30" t="n">
         <v>33</v>
-      </c>
-      <c r="HZ30" t="n">
-        <v>19</v>
       </c>
       <c r="IA30" t="n">
         <v>10</v>
@@ -29764,38 +30054,40 @@
       <c r="IG30" t="n">
         <v>5</v>
       </c>
-      <c r="IH30" t="n">
+      <c r="IH30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="II30" t="n">
         <v>0</v>
       </c>
-      <c r="II30" t="n">
-        <v>1</v>
-      </c>
       <c r="IJ30" t="n">
         <v>1</v>
       </c>
       <c r="IK30" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL30" t="n">
         <v>5</v>
       </c>
-      <c r="IL30" t="n">
-        <v>1</v>
-      </c>
       <c r="IM30" t="n">
         <v>1</v>
       </c>
       <c r="IN30" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO30" t="n">
         <v>5</v>
       </c>
-      <c r="IO30" t="n">
-        <v>1</v>
-      </c>
       <c r="IP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ30" t="n">
         <v>5</v>
       </c>
-      <c r="IQ30" t="n">
-        <v>1</v>
-      </c>
       <c r="IR30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="IS30" t="n">
         <v>5</v>
@@ -29828,76 +30120,84 @@
         <v>5</v>
       </c>
       <c r="JC30" t="n">
+        <v>5</v>
+      </c>
+      <c r="JD30" t="n">
         <v>50</v>
       </c>
-      <c r="JD30" t="n">
-        <v>2</v>
-      </c>
       <c r="JE30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JF30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="JG30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JH30" t="n">
         <v>4</v>
       </c>
       <c r="JI30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JJ30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="JK30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JL30" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM30" t="n">
         <v>13</v>
       </c>
-      <c r="JM30" t="n">
-        <v>1</v>
-      </c>
       <c r="JN30" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO30" t="n">
         <v>6</v>
       </c>
-      <c r="JO30" t="n">
-        <v>3</v>
-      </c>
       <c r="JP30" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ30" t="n">
         <v>6</v>
       </c>
-      <c r="JQ30" t="n">
-        <v>3</v>
-      </c>
       <c r="JR30" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS30" t="n">
         <v>19</v>
       </c>
-      <c r="JS30" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT30" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU30" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU30" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV30" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW30" t="n">
         <v>3.3</v>
       </c>
-      <c r="JV30" t="n">
-        <v>4</v>
-      </c>
-      <c r="JW30" t="n">
+      <c r="JX30" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY30" t="n">
         <v>6</v>
       </c>
-      <c r="JX30" t="n">
+      <c r="JZ30" t="n">
         <v>6</v>
       </c>
-      <c r="JY30" t="n">
+      <c r="KA30" t="n">
         <v>5</v>
       </c>
     </row>
@@ -30711,10 +31011,10 @@
         <v>28</v>
       </c>
       <c r="HY31" t="n">
+        <v>24</v>
+      </c>
+      <c r="HZ31" t="n">
         <v>32</v>
-      </c>
-      <c r="HZ31" t="n">
-        <v>24</v>
       </c>
       <c r="IA31" t="n">
         <v>13</v>
@@ -30737,20 +31037,22 @@
       <c r="IG31" t="n">
         <v>3</v>
       </c>
-      <c r="IH31" t="n">
+      <c r="IH31" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="II31" t="n">
         <v>0</v>
       </c>
-      <c r="II31" t="n">
+      <c r="IJ31" t="n">
         <v>5</v>
       </c>
-      <c r="IJ31" t="n">
-        <v>3</v>
-      </c>
       <c r="IK31" t="n">
         <v>3</v>
       </c>
       <c r="IL31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IM31" t="n">
         <v>1</v>
@@ -30759,61 +31061,61 @@
         <v>1</v>
       </c>
       <c r="IO31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IP31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IQ31" t="n">
         <v>1</v>
       </c>
       <c r="IR31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IS31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IT31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IU31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="IV31" t="n">
         <v>5</v>
       </c>
       <c r="IW31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="IX31" t="n">
+        <v>3</v>
+      </c>
+      <c r="IY31" t="n">
         <v>5</v>
       </c>
-      <c r="IY31" t="n">
-        <v>3</v>
-      </c>
       <c r="IZ31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="JA31" t="n">
         <v>1</v>
       </c>
       <c r="JB31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="JC31" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD31" t="n">
         <v>30</v>
       </c>
-      <c r="JD31" t="n">
-        <v>2</v>
-      </c>
       <c r="JE31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JF31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JG31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JH31" t="n">
         <v>4</v>
@@ -30822,55 +31124,63 @@
         <v>4</v>
       </c>
       <c r="JJ31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JK31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JL31" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM31" t="n">
         <v>15</v>
       </c>
-      <c r="JM31" t="n">
-        <v>1</v>
-      </c>
       <c r="JN31" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO31" t="n">
         <v>6</v>
       </c>
-      <c r="JO31" t="n">
-        <v>3</v>
-      </c>
       <c r="JP31" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ31" t="n">
         <v>6</v>
       </c>
-      <c r="JQ31" t="n">
-        <v>1</v>
-      </c>
       <c r="JR31" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS31" t="n">
         <v>17</v>
       </c>
-      <c r="JS31" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT31" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU31" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU31" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV31" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW31" t="n">
         <v>5</v>
       </c>
-      <c r="JV31" t="n">
+      <c r="JX31" t="n">
         <v>4.7</v>
       </c>
-      <c r="JW31" t="n">
+      <c r="JY31" t="n">
         <v>4.7</v>
       </c>
-      <c r="JX31" t="n">
+      <c r="JZ31" t="n">
         <v>6.7</v>
       </c>
-      <c r="JY31" t="n">
+      <c r="KA31" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31684,10 +31994,10 @@
         <v>36</v>
       </c>
       <c r="HY32" t="n">
+        <v>16</v>
+      </c>
+      <c r="HZ32" t="n">
         <v>36</v>
-      </c>
-      <c r="HZ32" t="n">
-        <v>16</v>
       </c>
       <c r="IA32" t="n">
         <v>13</v>
@@ -31710,20 +32020,22 @@
       <c r="IG32" t="n">
         <v>6</v>
       </c>
-      <c r="IH32" t="n">
+      <c r="IH32" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="II32" t="n">
         <v>0</v>
       </c>
-      <c r="II32" t="n">
-        <v>4</v>
-      </c>
       <c r="IJ32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IK32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IL32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IM32" t="n">
         <v>2</v>
@@ -31735,19 +32047,19 @@
         <v>2</v>
       </c>
       <c r="IP32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IQ32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IR32" t="n">
         <v>4</v>
       </c>
       <c r="IS32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IT32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IU32" t="n">
         <v>4</v>
@@ -31759,28 +32071,28 @@
         <v>4</v>
       </c>
       <c r="IX32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IY32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IZ32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="JA32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JB32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JC32" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD32" t="n">
         <v>32</v>
       </c>
-      <c r="JD32" t="n">
-        <v>3</v>
-      </c>
       <c r="JE32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="JF32" t="n">
         <v>2</v>
@@ -31789,10 +32101,10 @@
         <v>2</v>
       </c>
       <c r="JH32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JI32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="JJ32" t="n">
         <v>2</v>
@@ -31801,49 +32113,57 @@
         <v>2</v>
       </c>
       <c r="JL32" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM32" t="n">
         <v>9</v>
       </c>
-      <c r="JM32" t="n">
-        <v>1</v>
-      </c>
       <c r="JN32" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO32" t="n">
         <v>5</v>
       </c>
-      <c r="JO32" t="n">
-        <v>1</v>
-      </c>
       <c r="JP32" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ32" t="n">
         <v>6</v>
       </c>
-      <c r="JQ32" t="n">
-        <v>1</v>
-      </c>
       <c r="JR32" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS32" t="n">
         <v>14</v>
       </c>
-      <c r="JS32" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT32" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU32" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU32" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV32" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW32" t="n">
         <v>3.3</v>
       </c>
-      <c r="JV32" t="n">
+      <c r="JX32" t="n">
         <v>4.7</v>
       </c>
-      <c r="JW32" t="n">
+      <c r="JY32" t="n">
         <v>6.3</v>
       </c>
-      <c r="JX32" t="n">
+      <c r="JZ32" t="n">
         <v>6.3</v>
       </c>
-      <c r="JY32" t="n">
+      <c r="KA32" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32657,10 +32977,10 @@
         <v>29</v>
       </c>
       <c r="HY33" t="n">
+        <v>23</v>
+      </c>
+      <c r="HZ33" t="n">
         <v>31</v>
-      </c>
-      <c r="HZ33" t="n">
-        <v>23</v>
       </c>
       <c r="IA33" t="n">
         <v>14</v>
@@ -32683,50 +33003,52 @@
       <c r="IG33" t="n">
         <v>6</v>
       </c>
-      <c r="IH33" t="n">
-        <v>1</v>
+      <c r="IH33" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
       </c>
       <c r="II33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IJ33" t="n">
         <v>3</v>
       </c>
       <c r="IK33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IL33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IM33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IN33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IO33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IP33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IQ33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IR33" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS33" t="n">
         <v>5</v>
       </c>
-      <c r="IS33" t="n">
-        <v>3</v>
-      </c>
       <c r="IT33" t="n">
         <v>3</v>
       </c>
       <c r="IU33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IV33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="IW33" t="n">
         <v>5</v>
@@ -32735,88 +33057,96 @@
         <v>5</v>
       </c>
       <c r="IY33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="IZ33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JA33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="JB33" t="n">
+        <v>2</v>
+      </c>
+      <c r="JC33" t="n">
         <v>5</v>
       </c>
-      <c r="JC33" t="n">
+      <c r="JD33" t="n">
         <v>39</v>
       </c>
-      <c r="JD33" t="n">
-        <v>3</v>
-      </c>
       <c r="JE33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JF33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JG33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JH33" t="n">
         <v>3</v>
       </c>
       <c r="JI33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JJ33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="JK33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="JL33" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM33" t="n">
         <v>12</v>
       </c>
-      <c r="JM33" t="n">
-        <v>1</v>
-      </c>
       <c r="JN33" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO33" t="n">
         <v>5</v>
       </c>
-      <c r="JO33" t="n">
-        <v>4</v>
-      </c>
       <c r="JP33" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ33" t="n">
         <v>6</v>
       </c>
-      <c r="JQ33" t="n">
-        <v>2</v>
-      </c>
       <c r="JR33" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS33" t="n">
         <v>18</v>
       </c>
-      <c r="JS33" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT33" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU33" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU33" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV33" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW33" t="n">
         <v>3.3</v>
       </c>
-      <c r="JV33" t="n">
+      <c r="JX33" t="n">
         <v>2.7</v>
       </c>
-      <c r="JW33" t="n">
-        <v>4</v>
-      </c>
-      <c r="JX33" t="n">
+      <c r="JY33" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ33" t="n">
         <v>6</v>
       </c>
-      <c r="JY33" t="n">
+      <c r="KA33" t="n">
         <v>5.3</v>
       </c>
     </row>
@@ -33630,10 +33960,10 @@
         <v>32</v>
       </c>
       <c r="HY34" t="n">
+        <v>32</v>
+      </c>
+      <c r="HZ34" t="n">
         <v>29</v>
-      </c>
-      <c r="HZ34" t="n">
-        <v>32</v>
       </c>
       <c r="IA34" t="n">
         <v>14</v>
@@ -33656,77 +33986,79 @@
       <c r="IG34" t="n">
         <v>6</v>
       </c>
-      <c r="IH34" t="n">
-        <v>1</v>
+      <c r="IH34" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
       </c>
       <c r="II34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IJ34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IK34" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL34" t="n">
         <v>5</v>
       </c>
-      <c r="IL34" t="n">
-        <v>1</v>
-      </c>
       <c r="IM34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IN34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IO34" t="n">
         <v>4</v>
       </c>
       <c r="IP34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="IQ34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IR34" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS34" t="n">
         <v>5</v>
       </c>
-      <c r="IS34" t="n">
-        <v>2</v>
-      </c>
       <c r="IT34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IU34" t="n">
+        <v>3</v>
+      </c>
+      <c r="IV34" t="n">
         <v>5</v>
       </c>
-      <c r="IV34" t="n">
-        <v>4</v>
-      </c>
       <c r="IW34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="IX34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="IY34" t="n">
         <v>5</v>
       </c>
       <c r="IZ34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="JA34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="JB34" t="n">
+        <v>3</v>
+      </c>
+      <c r="JC34" t="n">
         <v>5</v>
       </c>
-      <c r="JC34" t="n">
+      <c r="JD34" t="n">
         <v>38</v>
       </c>
-      <c r="JD34" t="n">
-        <v>2</v>
-      </c>
       <c r="JE34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="JF34" t="n">
         <v>4</v>
@@ -33747,49 +34079,57 @@
         <v>4</v>
       </c>
       <c r="JL34" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM34" t="n">
         <v>16</v>
       </c>
-      <c r="JM34" t="n">
-        <v>1</v>
-      </c>
       <c r="JN34" t="n">
         <v>1</v>
       </c>
       <c r="JO34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="JP34" t="n">
         <v>6</v>
       </c>
       <c r="JQ34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="JR34" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS34" t="n">
         <v>15</v>
       </c>
-      <c r="JS34" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT34" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU34" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="JV34" t="n">
-        <v>4</v>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU34" t="inlineStr">
+        <is>
+          <t>Personalized</t>
+        </is>
+      </c>
+      <c r="JV34" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
       </c>
       <c r="JW34" t="n">
         <v>5.3</v>
       </c>
       <c r="JX34" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY34" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="JZ34" t="n">
         <v>4.3</v>
       </c>
-      <c r="JY34" t="n">
+      <c r="KA34" t="n">
         <v>4.3</v>
       </c>
     </row>
@@ -34603,10 +34943,10 @@
         <v>42</v>
       </c>
       <c r="HY35" t="n">
+        <v>28</v>
+      </c>
+      <c r="HZ35" t="n">
         <v>44</v>
-      </c>
-      <c r="HZ35" t="n">
-        <v>28</v>
       </c>
       <c r="IA35" t="n">
         <v>18</v>
@@ -34629,26 +34969,28 @@
       <c r="IG35" t="n">
         <v>3</v>
       </c>
-      <c r="IH35" t="n">
+      <c r="IH35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="II35" t="n">
         <v>0</v>
       </c>
-      <c r="II35" t="n">
-        <v>3</v>
-      </c>
       <c r="IJ35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IK35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IL35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IM35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IN35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IO35" t="n">
         <v>1</v>
@@ -34660,46 +35002,46 @@
         <v>1</v>
       </c>
       <c r="IR35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IS35" t="n">
         <v>3</v>
       </c>
       <c r="IT35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="IU35" t="n">
+        <v>4</v>
+      </c>
+      <c r="IV35" t="n">
         <v>5</v>
       </c>
-      <c r="IV35" t="n">
-        <v>3</v>
-      </c>
       <c r="IW35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="IX35" t="n">
         <v>5</v>
       </c>
       <c r="IY35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="IZ35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="JA35" t="n">
         <v>1</v>
       </c>
       <c r="JB35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="JC35" t="n">
+        <v>3</v>
+      </c>
+      <c r="JD35" t="n">
         <v>33</v>
       </c>
-      <c r="JD35" t="n">
-        <v>1</v>
-      </c>
       <c r="JE35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="JF35" t="n">
         <v>5</v>
@@ -34720,49 +35062,57 @@
         <v>5</v>
       </c>
       <c r="JL35" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM35" t="n">
         <v>20</v>
       </c>
-      <c r="JM35" t="n">
+      <c r="JN35" t="n">
         <v>6</v>
       </c>
-      <c r="JN35" t="n">
-        <v>4</v>
-      </c>
       <c r="JO35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="JP35" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ35" t="n">
         <v>6</v>
       </c>
-      <c r="JQ35" t="n">
-        <v>1</v>
-      </c>
       <c r="JR35" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS35" t="n">
         <v>18</v>
       </c>
-      <c r="JS35" t="inlineStr">
-        <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
       <c r="JT35" t="inlineStr">
         <is>
-          <t>Media Frequenza</t>
-        </is>
-      </c>
-      <c r="JU35" t="n">
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="JU35" t="inlineStr">
+        <is>
+          <t>Static</t>
+        </is>
+      </c>
+      <c r="JV35" t="inlineStr">
+        <is>
+          <t>Medium Frequency</t>
+        </is>
+      </c>
+      <c r="JW35" t="n">
         <v>2.7</v>
       </c>
-      <c r="JV35" t="n">
+      <c r="JX35" t="n">
         <v>5</v>
       </c>
-      <c r="JW35" t="n">
+      <c r="JY35" t="n">
         <v>5.7</v>
       </c>
-      <c r="JX35" t="n">
+      <c r="JZ35" t="n">
         <v>7</v>
       </c>
-      <c r="JY35" t="n">
+      <c r="KA35" t="n">
         <v>7</v>
       </c>
     </row>
